--- a/EscapeJail/Assets/기획/무기표.xlsx
+++ b/EscapeJail/Assets/기획/무기표.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t xml:space="preserve"> 권총</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
     <t>LightSaber</t>
   </si>
   <si>
-    <t>MagicStickMemoryEraser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mjolnir</t>
   </si>
   <si>
@@ -223,6 +219,17 @@
   <si>
     <t>RoseGun</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicStick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemoryEraser</t>
   </si>
 </sst>
 </file>
@@ -573,12 +580,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="915" topLeftCell="A31" activePane="bottomLeft"/>
+      <pane ySplit="915" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1159,54 +1166,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/EscapeJail/Assets/기획/무기표.xlsx
+++ b/EscapeJail/Assets/기획/무기표.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t xml:space="preserve"> 권총</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,22 +214,126 @@
     <t>TenisBallShooter</t>
   </si>
   <si>
+    <t>RoseGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicStick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemoryEraser</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShotGun</t>
+  </si>
+  <si>
+    <t>PumpAction</t>
+  </si>
+  <si>
+    <t>Saigong12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spa20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuperShort</t>
+  </si>
+  <si>
+    <t>k2g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>shortknife</t>
+  </si>
+  <si>
     <t>baseballbat</t>
-  </si>
-  <si>
-    <t>RoseGun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicStick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemoryEraser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스나이퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1G1</t>
+  </si>
+  <si>
+    <t>M1G2</t>
+  </si>
+  <si>
+    <t>ASI</t>
+  </si>
+  <si>
+    <t>Dragunoob</t>
+  </si>
+  <si>
+    <t>Mtw</t>
+  </si>
+  <si>
+    <t>War2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car98</t>
+  </si>
+  <si>
+    <t>상ㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minigun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWMMG</t>
   </si>
 </sst>
 </file>
@@ -580,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="915" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="915" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1076,56 +1180,89 @@
       <c r="A32" t="s">
         <v>39</v>
       </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -1152,6 +1289,9 @@
       <c r="A46" t="s">
         <v>52</v>
       </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1166,62 +1306,253 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
